--- a/data_year/zb/固定资产投资和房地产/按用途分商品房平均销售价格.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按用途分商品房平均销售价格.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,524 +468,297 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1948</v>
+        <v>4725</v>
       </c>
       <c r="C2" t="n">
-        <v>1864.37</v>
+        <v>4099</v>
       </c>
       <c r="D2" t="n">
-        <v>4288</v>
+        <v>10934</v>
       </c>
       <c r="E2" t="n">
-        <v>4751</v>
+        <v>11406</v>
       </c>
       <c r="F2" t="n">
-        <v>3260.38</v>
+        <v>7747</v>
       </c>
       <c r="G2" t="n">
-        <v>2112</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2017</v>
+        <v>4993.1746054845</v>
       </c>
       <c r="C3" t="n">
-        <v>2033.08</v>
+        <v>4182.1130564796</v>
       </c>
       <c r="D3" t="n">
-        <v>4348</v>
+        <v>10993.9248989063</v>
       </c>
       <c r="E3" t="n">
-        <v>4588</v>
+        <v>12327.2845596968</v>
       </c>
       <c r="F3" t="n">
-        <v>3273.53</v>
+        <v>8488.209927644601</v>
       </c>
       <c r="G3" t="n">
-        <v>2170</v>
+        <v>5357.0998432847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2092</v>
+        <v>5429.9311675316</v>
       </c>
       <c r="C4" t="n">
-        <v>1918.83</v>
+        <v>4305.7325116008</v>
       </c>
       <c r="D4" t="n">
-        <v>4154</v>
+        <v>11460.1883802409</v>
       </c>
       <c r="E4" t="n">
-        <v>4336</v>
+        <v>12306.4108653937</v>
       </c>
       <c r="F4" t="n">
-        <v>3488.57</v>
+        <v>9020.907580212999</v>
       </c>
       <c r="G4" t="n">
-        <v>2250</v>
+        <v>5790.9859815698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2197</v>
+        <v>5850</v>
       </c>
       <c r="C5" t="n">
-        <v>2240.74</v>
+        <v>4907</v>
       </c>
       <c r="D5" t="n">
-        <v>4145</v>
+        <v>12591</v>
       </c>
       <c r="E5" t="n">
-        <v>4196</v>
+        <v>12997</v>
       </c>
       <c r="F5" t="n">
-        <v>3675.14</v>
+        <v>9777</v>
       </c>
       <c r="G5" t="n">
-        <v>2359</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2608</v>
+        <v>5933</v>
       </c>
       <c r="C6" t="n">
-        <v>2235</v>
+        <v>5177</v>
       </c>
       <c r="D6" t="n">
-        <v>5576</v>
+        <v>12965</v>
       </c>
       <c r="E6" t="n">
-        <v>5744</v>
+        <v>11826</v>
       </c>
       <c r="F6" t="n">
-        <v>3884</v>
+        <v>9817</v>
       </c>
       <c r="G6" t="n">
-        <v>2778</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2936.9628205759</v>
+        <v>6473</v>
       </c>
       <c r="C7" t="n">
-        <v>2829.350310398</v>
+        <v>4845</v>
       </c>
       <c r="D7" t="n">
-        <v>5833.95273580394</v>
+        <v>15157</v>
       </c>
       <c r="E7" t="n">
-        <v>6922.5198397857</v>
+        <v>12914</v>
       </c>
       <c r="F7" t="n">
-        <v>5021.7533152223</v>
+        <v>9566</v>
       </c>
       <c r="G7" t="n">
-        <v>3167.6569445893</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3119.2506724205</v>
+        <v>7203</v>
       </c>
       <c r="C8" t="n">
-        <v>3131.3078548677</v>
+        <v>4832</v>
       </c>
       <c r="D8" t="n">
-        <v>6584.9338889743</v>
+        <v>15911</v>
       </c>
       <c r="E8" t="n">
-        <v>8052.7843291309</v>
+        <v>14332</v>
       </c>
       <c r="F8" t="n">
-        <v>5246.6206878109</v>
+        <v>9786</v>
       </c>
       <c r="G8" t="n">
-        <v>3366.7876588658</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3645.1831468835</v>
+        <v>7614</v>
       </c>
       <c r="C9" t="n">
-        <v>3351.4357317666</v>
+        <v>5364</v>
       </c>
       <c r="D9" t="n">
-        <v>7471.24755536418</v>
+        <v>14965</v>
       </c>
       <c r="E9" t="n">
-        <v>8667.017374937701</v>
+        <v>13543</v>
       </c>
       <c r="F9" t="n">
-        <v>5773.8269723453</v>
+        <v>10323</v>
       </c>
       <c r="G9" t="n">
-        <v>3863.9038022219</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3576</v>
+        <v>8553</v>
       </c>
       <c r="C10" t="n">
-        <v>3219</v>
+        <v>5336</v>
       </c>
       <c r="D10" t="n">
-        <v>7801</v>
+        <v>16252</v>
       </c>
       <c r="E10" t="n">
-        <v>8378</v>
+        <v>14379</v>
       </c>
       <c r="F10" t="n">
-        <v>5886</v>
+        <v>10903</v>
       </c>
       <c r="G10" t="n">
-        <v>3800</v>
+        <v>8726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4459</v>
+        <v>9287</v>
       </c>
       <c r="C11" t="n">
-        <v>3671</v>
+        <v>5074</v>
       </c>
       <c r="D11" t="n">
-        <v>9662</v>
+        <v>17886</v>
       </c>
       <c r="E11" t="n">
-        <v>10608</v>
+        <v>14315</v>
       </c>
       <c r="F11" t="n">
-        <v>6871</v>
+        <v>10952</v>
       </c>
       <c r="G11" t="n">
-        <v>4681</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4725</v>
+        <v>9980</v>
       </c>
       <c r="C12" t="n">
-        <v>4099</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10934</v>
-      </c>
+        <v>4787</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>11406</v>
+        <v>15138</v>
       </c>
       <c r="F12" t="n">
-        <v>7747</v>
+        <v>10646</v>
       </c>
       <c r="G12" t="n">
-        <v>5032</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4993.1746054845</v>
+        <v>10396</v>
       </c>
       <c r="C13" t="n">
-        <v>4182.1130564796</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10993.9248989063</v>
-      </c>
+        <v>4586</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>12327.2845596968</v>
+        <v>13932</v>
       </c>
       <c r="F13" t="n">
-        <v>8488.209927644601</v>
+        <v>10715</v>
       </c>
       <c r="G13" t="n">
-        <v>5357.0998432847</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5429.9311675316</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4305.7325116008</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11460.1883802409</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12306.4108653937</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9020.907580212999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5790.9859815698</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4907</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12591</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9777</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6237</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5933</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5177</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12965</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11826</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9817</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6324</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6473</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4845</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15157</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12914</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9566</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6793</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7203</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4832</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15911</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14332</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9786</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7476</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7614</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5364</v>
-      </c>
-      <c r="D19" t="n">
-        <v>14965</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13543</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10323</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7892</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8553</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5336</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16252</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14379</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10903</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8726</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9287</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5074</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17886</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14315</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10952</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9310</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>9980</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4787</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>15138</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10646</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9860</v>
+        <v>10139</v>
       </c>
     </row>
   </sheetData>
